--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D3E557-D134-D144-801E-87796725516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE50ACE-7EA7-FC44-870B-D83F8C13F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEP" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Publicação</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t xml:space="preserve"> https://drive.google.com/file/d/12eJfS9105WbEe1-N8u0m66aFsVCmZJfh</t>
+  </si>
+  <si>
+    <t>2024-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d8nHrxQPLnSa2GD4Bwottb2hSPXDpOhB</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367E97D-F0BA-2542-9952-750D3F1E198F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -555,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -577,13 +583,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -615,6 +621,7 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{84D5C8E8-003F-0948-AF17-CF60E663BE80}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{5891D25E-7D8F-4A45-AD2D-CEA56B0A8C0F}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -622,9 +629,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -646,57 +655,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -704,43 +713,43 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,60 +757,71 @@
         <v>2020</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2005</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE50ACE-7EA7-FC44-870B-D83F8C13F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E719B91-F220-4F49-B83D-4FA537A65164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEP" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Publicação</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1d8nHrxQPLnSa2GD4Bwottb2hSPXDpOhB</t>
+  </si>
+  <si>
+    <t>Resolução CEPE N° 002-2024.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ba4VDMVSW9s8wrBgvUlU4vk_TlycxT9t</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BtZoUHTAOtFIBXCMwloMkWtHqwTUfxYr</t>
   </si>
 </sst>
 </file>
@@ -234,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367E97D-F0BA-2542-9952-750D3F1E198F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -561,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -594,24 +603,24 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -619,9 +628,9 @@
     <sortCondition descending="1" ref="A1:A5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{84D5C8E8-003F-0948-AF17-CF60E663BE80}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{5891D25E-7D8F-4A45-AD2D-CEA56B0A8C0F}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -629,11 +638,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -710,35 +717,35 @@
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -746,82 +753,109 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
+      <c r="A12" t="s">
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition descending="1" ref="A1:A17"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
     <hyperlink ref="C6" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
     <hyperlink ref="C5" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
     <hyperlink ref="C4" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
     <hyperlink ref="C3" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E719B91-F220-4F49-B83D-4FA537A65164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AAC90-F97C-F146-9005-233DF18803D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEP" sheetId="3" r:id="rId1"/>
@@ -22,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Publicação</t>
   </si>
@@ -165,6 +156,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1BtZoUHTAOtFIBXCMwloMkWtHqwTUfxYr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HiRzD9mqnM8iuJF-gP7M5Y-hSb9tToW7</t>
+  </si>
+  <si>
+    <t>Ofício Circular No 81 CONEP/CNS/MS.pdf</t>
   </si>
 </sst>
 </file>
@@ -217,13 +214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -243,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367E97D-F0BA-2542-9952-750D3F1E198F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -568,19 +567,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -591,7 +590,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
@@ -602,7 +601,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
@@ -613,7 +612,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
@@ -623,14 +622,26 @@
         <v>42</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C5">
+  <sortState ref="A5:C5">
     <sortCondition descending="1" ref="A1:A5"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -837,7 +848,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+  <sortState ref="A2:C17">
     <sortCondition descending="1" ref="A1:A17"/>
   </sortState>
   <hyperlinks>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AAC90-F97C-F146-9005-233DF18803D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B13DBDD-7F2C-4348-B1F6-663EF5615FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEP" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Publicação</t>
   </si>
@@ -143,9 +143,6 @@
     <t xml:space="preserve"> https://drive.google.com/file/d/12eJfS9105WbEe1-N8u0m66aFsVCmZJfh</t>
   </si>
   <si>
-    <t>2024-1</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1d8nHrxQPLnSa2GD4Bwottb2hSPXDpOhB</t>
   </si>
   <si>
@@ -162,6 +159,15 @@
   </si>
   <si>
     <t>Ofício Circular No 81 CONEP/CNS/MS.pdf</t>
+  </si>
+  <si>
+    <t>Lei Nº 14.874, de 28 de maio de 2024 que dispõe sobre a pesquisa com seres humanos e institui o Sistema Nacional de Ética em Pesquisa com Seres Humanos</t>
+  </si>
+  <si>
+    <t>http://www.planalto.gov.br/ccivil_03/_ato2023-2026/2024/lei/L14874.htm</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,57 +597,69 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A5:C5">
-    <sortCondition descending="1" ref="A1:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C6">
+    <sortCondition descending="1" ref="A1:A6"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -848,7 +866,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition descending="1" ref="A1:A17"/>
   </sortState>
   <hyperlinks>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B13DBDD-7F2C-4348-B1F6-663EF5615FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53A328E-5404-C84C-B231-CA8F1C02B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Publicação</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>OFÍCIO No 437/2024/CONEP/SECNS/DGIP/SE/MS</t>
+  </si>
+  <si>
+    <t>Aprovação da renovação do registro e credenciamento do CEP No 5235 - Centro Universitário Augusto Motta (UNISUAM)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-ZndzMX75tF3Hjstoaj6_FZH5Kf6z9kW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-Zvj4ehDVEcYitBgz2rsYnNQom4r_e6C</t>
   </si>
 </sst>
 </file>
@@ -248,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,14 +585,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="2" max="2" width="133.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -640,14 +652,25 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2008</v>
+      <c r="A6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -658,8 +681,9 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{8103BA41-79FA-9443-9358-C552296EE622}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{19A55501-D948-714D-8DFC-CB2C726B94E4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -667,7 +691,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -856,21 +880,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2005</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
-    <sortCondition descending="1" ref="A1:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition descending="1" ref="A1:A18"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
     <hyperlink ref="C13" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
     <hyperlink ref="C14" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
     <hyperlink ref="C12" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
@@ -885,6 +920,7 @@
     <hyperlink ref="C3" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
     <hyperlink ref="C7" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
     <hyperlink ref="C8" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53A328E-5404-C84C-B231-CA8F1C02B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6FBF1-ABF0-F94E-8C3C-F963BD3370A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Publicação</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-Zvj4ehDVEcYitBgz2rsYnNQom4r_e6C</t>
+  </si>
+  <si>
+    <t>2024-1</t>
+  </si>
+  <si>
+    <t>2024-2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-ir6LHiiiHCD2-B8M48tpBqYANlnkerI</t>
   </si>
 </sst>
 </file>
@@ -620,13 +629,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -678,12 +687,12 @@
     <sortCondition descending="1" ref="A1:A6"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{0E9F2AD7-CF16-BA4C-A969-BB8CBF187A04}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{8103BA41-79FA-9443-9358-C552296EE622}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{19A55501-D948-714D-8DFC-CB2C726B94E4}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{8103BA41-79FA-9443-9358-C552296EE622}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{19A55501-D948-714D-8DFC-CB2C726B94E4}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{97B8D0AA-E387-B948-9DCA-AEE0E27038BF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -691,7 +700,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -714,69 +723,69 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
+      <c r="A2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -784,21 +793,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -806,43 +815,43 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,77 +859,89 @@
         <v>2020</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2012</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2008</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2005</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition descending="1" ref="A1:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C19">
+    <sortCondition descending="1" ref="A1:A19"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
-    <hyperlink ref="C16" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
-    <hyperlink ref="C7" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
-    <hyperlink ref="C8" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
+    <hyperlink ref="C2" r:id="rId17" xr:uid="{251BCF5F-BACA-B84E-A6EE-F4AE2FF2E699}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6FBF1-ABF0-F94E-8C3C-F963BD3370A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CEEBA-DF1C-BD4B-AAAE-27F135EB7413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEP" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Publicação</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-ir6LHiiiHCD2-B8M48tpBqYANlnkerI</t>
+  </si>
+  <si>
+    <t>2025-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1m6NNJU8RCxnvVltRJ1wVNxmGEmkAaEIy</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367E97D-F0BA-2542-9952-750D3F1E198F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -596,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -618,24 +624,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -689,10 +695,10 @@
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{E7F9695A-925A-3E46-873D-88BB446ADAFE}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{AEF6D558-16F5-2143-ADBE-150A7E825962}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{8103BA41-79FA-9443-9358-C552296EE622}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{19A55501-D948-714D-8DFC-CB2C726B94E4}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{97B8D0AA-E387-B948-9DCA-AEE0E27038BF}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{0188653D-2EA1-C942-BBB8-4F71890955AE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -724,79 +730,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
+      <c r="A3" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -804,21 +810,21 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -826,43 +832,43 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2020</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -870,78 +876,90 @@
         <v>2020</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2012</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2008</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2005</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C19">
-    <sortCondition descending="1" ref="A1:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C20">
+    <sortCondition descending="1" ref="A1:A20"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
-    <hyperlink ref="C9" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
-    <hyperlink ref="C2" r:id="rId17" xr:uid="{251BCF5F-BACA-B84E-A6EE-F4AE2FF2E699}"/>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{251BCF5F-BACA-B84E-A6EE-F4AE2FF2E699}"/>
+    <hyperlink ref="C2" r:id="rId18" xr:uid="{3D610B46-1C77-BC4D-AED5-F145629848E0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CEEBA-DF1C-BD4B-AAAE-27F135EB7413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71AC361-EACE-BD40-B85A-6C7E519E3F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="960" yWindow="680" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEP" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Publicação</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1m6NNJU8RCxnvVltRJ1wVNxmGEmkAaEIy</t>
+  </si>
+  <si>
+    <t>2025-2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OUTSKr-b5pc4DGwSn0VrUoQRQ8BMMrko</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367E97D-F0BA-2542-9952-750D3F1E198F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -602,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -624,13 +630,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +704,7 @@
     <hyperlink ref="C3" r:id="rId3" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{8103BA41-79FA-9443-9358-C552296EE622}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{19A55501-D948-714D-8DFC-CB2C726B94E4}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{0188653D-2EA1-C942-BBB8-4F71890955AE}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{83F2C62F-FF62-344E-BE7A-C5A6D6481002}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -706,7 +712,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,90 +736,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -821,21 +827,21 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -843,43 +849,43 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2020</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -887,79 +893,91 @@
         <v>2020</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2014</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2012</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2005</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C20">
-    <sortCondition descending="1" ref="A1:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C21">
+    <sortCondition descending="1" ref="A1:A21"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
-    <hyperlink ref="C5" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
-    <hyperlink ref="C9" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
-    <hyperlink ref="C3" r:id="rId17" xr:uid="{251BCF5F-BACA-B84E-A6EE-F4AE2FF2E699}"/>
-    <hyperlink ref="C2" r:id="rId18" xr:uid="{3D610B46-1C77-BC4D-AED5-F145629848E0}"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
+    <hyperlink ref="C4" r:id="rId17" xr:uid="{251BCF5F-BACA-B84E-A6EE-F4AE2FF2E699}"/>
+    <hyperlink ref="C3" r:id="rId18" xr:uid="{3D610B46-1C77-BC4D-AED5-F145629848E0}"/>
+    <hyperlink ref="C2" r:id="rId19" xr:uid="{BE86EA4F-BE04-964F-A9A9-06B77DA514B2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Comitê de Ética em Pesquisa.xlsx
+++ b/PPG/Comitê de Ética em Pesquisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71AC361-EACE-BD40-B85A-6C7E519E3F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB503B20-5512-2E42-BAF2-AED14F6F149B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="680" windowWidth="24920" windowHeight="15540" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Publicação</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1OUTSKr-b5pc4DGwSn0VrUoQRQ8BMMrko</t>
+  </si>
+  <si>
+    <t>2026-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nUMu-LSy-WYqPn7fdvX7tCz2v9_M3L86</t>
   </si>
 </sst>
 </file>
@@ -630,13 +636,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -704,7 +710,7 @@
     <hyperlink ref="C3" r:id="rId3" xr:uid="{BA79501F-7DFC-224C-9B55-7F76F4BEF84C}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{8103BA41-79FA-9443-9358-C552296EE622}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{19A55501-D948-714D-8DFC-CB2C726B94E4}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{83F2C62F-FF62-344E-BE7A-C5A6D6481002}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{30569577-1462-DE42-ADB2-DC00BD8F68E6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -712,7 +718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -736,101 +742,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -838,21 +844,21 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -860,43 +866,43 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,80 +910,92 @@
         <v>2020</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>2020</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2014</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2012</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2005</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C21">
-    <sortCondition descending="1" ref="A1:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C22">
+    <sortCondition descending="1" ref="A1:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
-    <hyperlink ref="C6" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
-    <hyperlink ref="C4" r:id="rId17" xr:uid="{251BCF5F-BACA-B84E-A6EE-F4AE2FF2E699}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{3D610B46-1C77-BC4D-AED5-F145629848E0}"/>
-    <hyperlink ref="C2" r:id="rId19" xr:uid="{BE86EA4F-BE04-964F-A9A9-06B77DA514B2}"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{1A61FFF3-4EA0-A442-AD33-D66531F9DD8F}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{909A5F5D-62EB-F543-867F-7D943C7E00A8}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{F14215CB-AC62-5140-B5CF-0C11852A6703}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{251BCF5F-BACA-B84E-A6EE-F4AE2FF2E699}"/>
+    <hyperlink ref="C4" r:id="rId18" xr:uid="{3D610B46-1C77-BC4D-AED5-F145629848E0}"/>
+    <hyperlink ref="C3" r:id="rId19" xr:uid="{BE86EA4F-BE04-964F-A9A9-06B77DA514B2}"/>
+    <hyperlink ref="C2" r:id="rId20" xr:uid="{5F6A901E-DFC1-1147-9104-427E9410CDC8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
